--- a/개발서류/기능정의서.xlsx
+++ b/개발서류/기능정의서.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\Hana-Financial-Live-Commerce\개발서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4306608-5AC3-4B61-B1B7-31FC609DB2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702EAC3C-EC30-4604-9BD3-4A460595EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="15660" windowHeight="585" xr2:uid="{86B8BB03-2C81-44EE-BC0A-954974D03BB0}"/>
+    <workbookView xWindow="5745" yWindow="1710" windowWidth="15660" windowHeight="585" xr2:uid="{86B8BB03-2C81-44EE-BC0A-954974D03BB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="전체" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="6" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">전체!$A$3:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>라이브방송</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,18 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월별 신규고객수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품별매출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체영업실적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고객분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,14 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월별 목표 영업액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월별 목표 달성률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>판매자 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +218,6 @@
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 송출 중인 방송으로 연결되는 섹션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,23 +269,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일대일상담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청서 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일대일 가입 상담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입상담신청</t>
+    <t>상품가입하기(보험)</t>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품가입하기(적금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌개설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적금가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적금납입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규가입상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존가입상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독채널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 송출 중인 방송을 노출하는 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 월별 매출을 조회할 수 있는 기능
+- 오프라인 매출까지 끌어올 수 있으면 좋겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 월별 신규 고객수를 조회할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품별 매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 달성률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당 영업액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당 영업액을 조회할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 할당 영업액 달성률을 조회할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 연령대 분석을 할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 성별 분석을 할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 거주 지역을 분석할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적금 상품 가입하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적금계좌를 개설하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독한 판매자 채널을 조회할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융 상품 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 새로운 금융 상품을 신청하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 금융상품의 적격성을 판단하여 승인하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">승인 완료 시, 판매자가 배정되고 라이브 방송을 진행할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송의 시청자수를 분석하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송으로 판매한 상품을 구매한 고객의 수를 조회하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청자수 대비 실구매자수를 확인할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 및 방송 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://finlife.fss.or.kr/PageLink.do?link=openapi/detail02&amp;menuId=2000126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품한눈에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5f636bddf79ad92851de255a34ba9e7b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미결기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,16 +481,37 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,22 +519,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE839A-3A3A-4547-9921-260354D375E3}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,343 +908,599 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E41" xr:uid="{31DE839A-3A3A-4547-9921-260354D375E3}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF891EB-19E7-44AB-994F-A15ACE512A36}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C0E9766F-6240-4740-8181-BFDB55913424}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>